--- a/error/new/fabric_colorspace/fabric_colorspace.xlsx
+++ b/error/new/fabric_colorspace/fabric_colorspace.xlsx
@@ -174,6 +174,14 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -183,14 +191,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2336,10 +2336,502 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>rgb_training</c:v>
+            <c:strRef>
+              <c:f>Folha1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$E$3:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9D2D-4269-9ACF-10360153D65A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>validation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$F$3:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97.77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96.59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97.64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>97.51</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>97.77</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.72</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>98.43</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9D2D-4269-9ACF-10360153D65A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9D2D-4269-9ACF-10360153D65A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>validation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2352,57 +2844,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Folha1!$A$2:$A$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
+            <c:numRef>
               <c:f>Folha1!$A$3:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Folha1!$B$2:$B$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Folha1!$B$3:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2410,105 +2853,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.29</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.19</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.64</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99.49</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8127-4A13-9326-710B29A0020A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>rgb_validation</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Folha1!$A$2:$A$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Folha1!$A$3:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Folha1!$C$2:$C$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
               <c:f>Folha1!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2545,7 +2917,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8127-4A13-9326-710B29A0020A}"/>
+              <c16:uniqueId val="{00000005-9D2D-4269-9ACF-10360153D65A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2559,11 +2931,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="396182240"/>
-        <c:axId val="396182896"/>
+        <c:axId val="850777672"/>
+        <c:axId val="850778000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="396182240"/>
+        <c:axId val="850777672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2606,7 +2978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396182896"/>
+        <c:crossAx val="850778000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2614,7 +2986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="396182896"/>
+        <c:axId val="850778000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2665,17 +3037,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396182240"/>
+        <c:crossAx val="850777672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -2712,21 +3077,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2746,46 +3096,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3328,521 +3638,18 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
@@ -3871,23 +3678,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Gráfico 9">
+        <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64863B31-A37A-476C-B370-C3ABDF86A721}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD676212-CB68-4CF4-9F86-75A467A3BCB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4173,104 +3980,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="8.88671875" style="5"/>
-    <col min="4" max="4" width="8.88671875" style="6"/>
-    <col min="5" max="5" width="8.88671875" style="4"/>
-    <col min="6" max="6" width="8.88671875" style="5"/>
-    <col min="7" max="7" width="8.88671875" style="6"/>
-    <col min="8" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="8.88671875" style="5"/>
-    <col min="10" max="10" width="8.88671875" style="6"/>
-    <col min="11" max="11" width="8.88671875" style="4"/>
-    <col min="12" max="12" width="8.88671875" style="5"/>
-    <col min="13" max="13" width="8.88671875" style="6"/>
-    <col min="14" max="14" width="8.88671875" style="4"/>
-    <col min="15" max="15" width="8.88671875" style="5"/>
-    <col min="16" max="16" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="8.88671875" style="3"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="8.88671875" style="2"/>
+    <col min="13" max="13" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="8.88671875" style="2"/>
+    <col min="16" max="16" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="O1" s="10"/>
+      <c r="P1" s="11"/>
+    </row>
+    <row r="2" spans="1:16" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4279,49 +4086,49 @@
         <f>5*(ROW(A3)-3)</f>
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="2">
         <v>0</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4330,49 +4137,49 @@
         <f t="shared" ref="A4:A67" si="0">5*(ROW(A4)-3)</f>
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>14.29</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>14.29</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>6.09</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>4.1500000000000004</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="1">
         <v>1.63</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <v>1.97</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>6.32</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="1">
         <v>15.02</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="2">
         <v>13.63</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>5.89</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="1">
         <v>20.02</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="2">
         <v>19.66</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="3">
         <v>5.88</v>
       </c>
     </row>
@@ -4381,49 +4188,49 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>47.19</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>46.13</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>11.23</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>1.35</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>0.92</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>7.18</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="1">
         <v>12.32</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <v>11.4</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>11.44</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="1">
         <v>35.83</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="2">
         <v>35.78</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="3">
         <v>10.8</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="1">
         <v>38.979999999999997</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="2">
         <v>39.450000000000003</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="3">
         <v>10.88</v>
       </c>
     </row>
@@ -4432,49 +4239,49 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>83.18</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>74.97</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>31.38</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <v>22.67</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>10.19</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1">
         <v>14.06</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <v>13.89</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>16.48</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="1">
         <v>50.17</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="2">
         <v>44.69</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="3">
         <v>15.68</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="1">
         <v>42.07</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="2">
         <v>42.33</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="3">
         <v>15.98</v>
       </c>
     </row>
@@ -4483,49 +4290,49 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>97.64</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>88.99</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>21.27</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>70.81</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <v>58.06</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>13.17</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="1">
         <v>15.64</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <v>14.94</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>21.35</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="1">
         <v>61.81</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="2">
         <v>54.26</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="3">
         <v>20.53</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="1">
         <v>42.86</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="2">
         <v>42.86</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="3">
         <v>20.69</v>
       </c>
     </row>
@@ -4534,49 +4341,49 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>99.49</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>93.32</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>26.14</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>81.89</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <v>71.17</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>16.34</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>25.31</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <v>24.12</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>26.28</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>69.239999999999995</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="2">
         <v>60.29</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="3">
         <v>25.4</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="1">
         <v>49.33</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="2">
         <v>46.92</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="3">
         <v>25.77</v>
       </c>
     </row>
@@ -4585,49 +4392,49 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>100</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>96.59</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>31.16</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <v>89.31</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>81.39</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>19.28</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="1">
         <v>25.42</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <v>23.98</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>31.55</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="1">
         <v>71.150000000000006</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="2">
         <v>65.010000000000005</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="3">
         <v>30.13</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="1">
         <v>56.58</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="2">
         <v>52.69</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="3">
         <v>30.51</v>
       </c>
     </row>
@@ -4636,49 +4443,49 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>100</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>99.21</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>36.14</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <v>94.26</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="2">
         <v>87.16</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>22.21</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="1">
         <v>26.6</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <v>25.82</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>36.479999999999997</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="1">
         <v>71.430000000000007</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="2">
         <v>69.069999999999993</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="3">
         <v>35</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="1">
         <v>63.95</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="2">
         <v>59.76</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="3">
         <v>35.270000000000003</v>
       </c>
     </row>
@@ -4687,49 +4494,49 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>100</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>99.21</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>36.14</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>97.02</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="2">
         <v>89.65</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>25.23</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="1">
         <v>29.3</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <v>27.79</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="3">
         <v>41.53</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="1">
         <v>75.48</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="2">
         <v>71.17</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="3">
         <v>40.020000000000003</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="1">
         <v>69.010000000000005</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="2">
         <v>63.96</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="3">
         <v>40.119999999999997</v>
       </c>
     </row>
@@ -4738,40 +4545,40 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>98.31</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="2">
         <v>88.47</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>28.24</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="1">
         <v>37.35</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="2">
         <v>34.729999999999997</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>46.65</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="1">
         <v>74.92</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="2">
         <v>73.66</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="3">
         <v>44.9</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="1">
         <v>74.52</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="2">
         <v>68.55</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="3">
         <v>45</v>
       </c>
     </row>
@@ -4780,40 +4587,40 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>99.21</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="2">
         <v>92.01</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>31.08</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="1">
         <v>44.71</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <v>39.97</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="3">
         <v>52.03</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="1">
         <v>74.75</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="2">
         <v>72.739999999999995</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="3">
         <v>49.71</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="1">
         <v>80.650000000000006</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="2">
         <v>76.8</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="3">
         <v>49.84</v>
       </c>
     </row>
@@ -4822,40 +4629,40 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>99.78</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="2">
         <v>96.2</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <v>34.159999999999997</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="1">
         <v>47.92</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="2">
         <v>42.33</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="3">
         <v>56.87</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="1">
         <v>77</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="2">
         <v>74.569999999999993</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="3">
         <v>54.53</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="1">
         <v>81.05</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="2">
         <v>75.36</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="3">
         <v>54.77</v>
       </c>
     </row>
@@ -4864,40 +4671,40 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="1">
         <v>99.89</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="2">
         <v>95.54</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="3">
         <v>37.07</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="1">
         <v>53.6</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="2">
         <v>47.44</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="3">
         <v>62.11</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="1">
         <v>78.23</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="2">
         <v>76.930000000000007</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="3">
         <v>59.33</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="1">
         <v>85.88</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="2">
         <v>82.7</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="3">
         <v>59.74</v>
       </c>
     </row>
@@ -4906,40 +4713,40 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="1">
         <v>99.89</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="2">
         <v>95.15</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="3">
         <v>43.47</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="1">
         <v>58.21</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="2">
         <v>51.9</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="3">
         <v>67.069999999999993</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="1">
         <v>82.9</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="2">
         <v>80.08</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="3">
         <v>64.180000000000007</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="1">
         <v>90.66</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="2">
         <v>85.32</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="3">
         <v>64.48</v>
       </c>
     </row>
@@ -4948,40 +4755,40 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="1">
         <v>100</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="2">
         <v>97.25</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="3">
         <v>46.37</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="1">
         <v>56.13</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="2">
         <v>50.72</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="3">
         <v>72.06</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="1">
         <v>82.68</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="2">
         <v>79.55</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="3">
         <v>68.900000000000006</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="1">
         <v>92.86</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="2">
         <v>88.34</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="3">
         <v>69.39</v>
       </c>
     </row>
@@ -4990,40 +4797,40 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="1">
         <v>100</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="2">
         <v>97.25</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="3">
         <v>49.27</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="1">
         <v>58.89</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="2">
         <v>53.21</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="3">
         <v>77.14</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="1">
         <v>85.83</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="2">
         <v>83.49</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="3">
         <v>73.52</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="1">
         <v>95.95</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="2">
         <v>91.87</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="3">
         <v>74.180000000000007</v>
       </c>
     </row>
@@ -5032,40 +4839,40 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="1">
         <v>100</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="2">
         <v>97.77</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="3">
         <v>52.18</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="1">
         <v>64.739999999999995</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <v>58.19</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="3">
         <v>82.34</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="1">
         <v>89.54</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="2">
         <v>86.11</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="3">
         <v>78.34</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="1">
         <v>96.79</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="2">
         <v>93.18</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="3">
         <v>79.2</v>
       </c>
     </row>
@@ -5074,40 +4881,40 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="1">
         <v>100</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="2">
         <v>96.59</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="3">
         <v>55.14</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="1">
         <v>65.52</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="2">
         <v>59.11</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="3">
         <v>87.43</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="1">
         <v>86.56</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="2">
         <v>83.62</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="3">
         <v>83.16</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="1">
         <v>98.59</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="2">
         <v>94.63</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="3">
         <v>83.99</v>
       </c>
     </row>
@@ -5116,40 +4923,40 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="1">
         <v>100</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="2">
         <v>97.64</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="3">
         <v>58.05</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="1">
         <v>66.48</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="2">
         <v>59.63</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="3">
         <v>92.44</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="1">
         <v>93.31</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="2">
         <v>89.52</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="3">
         <v>87.99</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="1">
         <v>97.92</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="2">
         <v>95.28</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="3">
         <v>88.72</v>
       </c>
     </row>
@@ -5158,40 +4965,40 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="1">
         <v>100</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="2">
         <v>97.51</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="3">
         <v>61.03</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="1">
         <v>69.8</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="2">
         <v>61.6</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="3">
         <v>97.36</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="1">
         <v>94.77</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="2">
         <v>92.01</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="3">
         <v>93.08</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="1">
         <v>99.38</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="2">
         <v>97.12</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="3">
         <v>93.53</v>
       </c>
     </row>
@@ -5200,40 +5007,40 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="1">
         <v>100</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="2">
         <v>97.77</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="3">
         <v>64.08</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="1">
         <v>71.260000000000005</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="2">
         <v>62.39</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="3">
         <v>102.43</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="1">
         <v>95.39</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="2">
         <v>93.05</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="3">
         <v>97.88</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="1">
         <v>99.72</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="2">
         <v>97.51</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="3">
         <v>98.2</v>
       </c>
     </row>
@@ -5242,40 +5049,40 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="1">
         <v>100</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="2">
         <v>96.72</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="3">
         <v>67.08</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="1">
         <v>73.28</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="2">
         <v>64.739999999999995</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="3">
         <v>107.27</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="1">
         <v>96.91</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="2">
         <v>92.53</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="3">
         <v>102.83</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="1">
         <v>99.61</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="2">
         <v>97.25</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="3">
         <v>103.05</v>
       </c>
     </row>
@@ -5284,40 +5091,40 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="1">
         <v>100</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="2">
         <v>98.43</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="3">
         <v>69.97</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="1">
         <v>74.13</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <v>63.43</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="3">
         <v>112.26</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="1">
         <v>97.75</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="2">
         <v>92.92</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="3">
         <v>108.21</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="1">
         <v>99.33</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="2">
         <v>97.51</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="3">
         <v>107.87</v>
       </c>
     </row>
@@ -5326,40 +5133,40 @@
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="1">
         <v>100</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="2">
         <v>98.43</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="3">
         <v>69.97</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="1">
         <v>77.67</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <v>63.96</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="3">
         <v>117.25</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="1">
         <v>98.03</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="2">
         <v>94.36</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="3">
         <v>113.19</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="1">
         <v>100</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="2">
         <v>98.56</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="3">
         <v>112.61</v>
       </c>
     </row>
@@ -5368,31 +5175,31 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="1">
         <v>77.73</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <v>65.790000000000006</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="3">
         <v>122.1</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="1">
         <v>98.71</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="2">
         <v>95.28</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="3">
         <v>118.11</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="1">
         <v>100</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="2">
         <v>98.56</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="3">
         <v>112.61</v>
       </c>
     </row>
@@ -5401,22 +5208,22 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="1">
         <v>79.19</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="2">
         <v>69.069999999999993</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="3">
         <v>127.12</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="1">
         <v>98.82</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="2">
         <v>95.67</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="3">
         <v>123.07</v>
       </c>
     </row>
@@ -5425,22 +5232,22 @@
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="1">
         <v>84.03</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <v>67.89</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="3">
         <v>131.84</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="1">
         <v>99.16</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="2">
         <v>94.36</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="3">
         <v>127.78</v>
       </c>
     </row>
@@ -5449,22 +5256,22 @@
         <f>5*(ROW(A30)-3)</f>
         <v>135</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="1">
         <v>85.43</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="2">
         <v>68.94</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="3">
         <v>136.66</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="1">
         <v>99.38</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="2">
         <v>96.99</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="3">
         <v>132.43</v>
       </c>
     </row>
@@ -5473,22 +5280,22 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="1">
         <v>89.93</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <v>71.17</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="3">
         <v>141.55000000000001</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="1">
         <v>99.72</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="2">
         <v>97.9</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="3">
         <v>137.24</v>
       </c>
     </row>
@@ -5497,22 +5304,22 @@
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="1">
         <v>88.3</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <v>71.69</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="3">
         <v>146.37</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="1">
         <v>99.72</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="2">
         <v>97.25</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="3">
         <v>142.63</v>
       </c>
     </row>
@@ -5521,22 +5328,22 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="1">
         <v>89.71</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="2">
         <v>71.040000000000006</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="3">
         <v>151.66</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="1">
         <v>99.72</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="2">
         <v>97.25</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="3">
         <v>147.46</v>
       </c>
     </row>
@@ -5545,22 +5352,22 @@
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="1">
         <v>91.34</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="2">
         <v>72.87</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="3">
         <v>156.6</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="1">
         <v>99.89</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="2">
         <v>98.3</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="3">
         <v>152.13999999999999</v>
       </c>
     </row>
@@ -5569,22 +5376,22 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="1">
         <v>91.62</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="2">
         <v>73.790000000000006</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="3">
         <v>161.51</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="1">
         <v>99.89</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="2">
         <v>98.3</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="3">
         <v>152.13999999999999</v>
       </c>
     </row>
@@ -5593,13 +5400,13 @@
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="1">
         <v>93.76</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="2">
         <v>73.66</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="3">
         <v>166.39</v>
       </c>
     </row>
@@ -5608,13 +5415,13 @@
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="1">
         <v>94.09</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="2">
         <v>74.31</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="3">
         <v>171.51</v>
       </c>
     </row>
@@ -5623,13 +5430,13 @@
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="1">
         <v>94.83</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="2">
         <v>74.97</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="3">
         <v>176.62</v>
       </c>
     </row>
@@ -5638,13 +5445,13 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="1">
         <v>96.57</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="2">
         <v>74.97</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="3">
         <v>181.57</v>
       </c>
     </row>
@@ -5653,13 +5460,13 @@
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="1">
         <v>96.85</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="2">
         <v>76.41</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="3">
         <v>186.44</v>
       </c>
     </row>
@@ -5668,13 +5475,13 @@
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="1">
         <v>95.39</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="2">
         <v>73.66</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="3">
         <v>191.27</v>
       </c>
     </row>
@@ -5683,13 +5490,13 @@
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="1">
         <v>97.3</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="2">
         <v>77.59</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="3">
         <v>196.2</v>
       </c>
     </row>
@@ -5698,13 +5505,13 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="1">
         <v>97.75</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="2">
         <v>77.459999999999994</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="3">
         <v>201.08</v>
       </c>
     </row>
@@ -5713,13 +5520,13 @@
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="1">
         <v>97.92</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="2">
         <v>78.239999999999995</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="3">
         <v>205.9</v>
       </c>
     </row>
@@ -5728,13 +5535,13 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="1">
         <v>98.71</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="2">
         <v>77.72</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="3">
         <v>210.66</v>
       </c>
     </row>
@@ -5743,13 +5550,13 @@
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="1">
         <v>98.43</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="2">
         <v>78.11</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="3">
         <v>215.4</v>
       </c>
     </row>
@@ -5758,13 +5565,13 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="1">
         <v>98.88</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="2">
         <v>78.900000000000006</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="3">
         <v>220.16</v>
       </c>
     </row>
@@ -5773,13 +5580,13 @@
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="1">
         <v>99.04</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="2">
         <v>77.06</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="3">
         <v>224.94</v>
       </c>
     </row>
@@ -5788,13 +5595,13 @@
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="1">
         <v>99.38</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="2">
         <v>79.69</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="3">
         <v>229.93</v>
       </c>
     </row>
@@ -5803,13 +5610,13 @@
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="1">
         <v>99.04</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="2">
         <v>79.290000000000006</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="3">
         <v>234.95</v>
       </c>
     </row>
@@ -5818,13 +5625,13 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="1">
         <v>99.38</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="2">
         <v>78.77</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="3">
         <v>240.38</v>
       </c>
     </row>
@@ -5833,13 +5640,13 @@
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="1">
         <v>98.82</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="2">
         <v>80.34</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="3">
         <v>245.03</v>
       </c>
     </row>
@@ -5848,13 +5655,13 @@
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="1">
         <v>99.38</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="2">
         <v>80.34</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="3">
         <v>250.04</v>
       </c>
     </row>
@@ -5863,13 +5670,13 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="1">
         <v>99.49</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="2">
         <v>80.599999999999994</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="3">
         <v>255.02</v>
       </c>
     </row>
@@ -5878,13 +5685,13 @@
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="1">
         <v>99.72</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55" s="2">
         <v>79.95</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="3">
         <v>259.83999999999997</v>
       </c>
     </row>
@@ -5893,13 +5700,13 @@
         <f t="shared" si="0"/>
         <v>265</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="1">
         <v>99.66</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="2">
         <v>79.95</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="3">
         <v>264.55</v>
       </c>
     </row>
@@ -5908,13 +5715,13 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="1">
         <v>99.27</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="2">
         <v>79.16</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="3">
         <v>269.49</v>
       </c>
     </row>
@@ -5923,13 +5730,13 @@
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="1">
         <v>99.94</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="2">
         <v>80.87</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="3">
         <v>274.54000000000002</v>
       </c>
     </row>
@@ -5938,13 +5745,13 @@
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="1">
         <v>99.94</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59" s="2">
         <v>81.260000000000005</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="3">
         <v>279.14999999999998</v>
       </c>
     </row>
@@ -5953,13 +5760,13 @@
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="1">
         <v>99.94</v>
       </c>
-      <c r="I60" s="5">
+      <c r="I60" s="2">
         <v>80.209999999999994</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="3">
         <v>283.88</v>
       </c>
     </row>
@@ -5968,13 +5775,13 @@
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="1">
         <v>99.89</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61" s="2">
         <v>81.13</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="3">
         <v>288.93</v>
       </c>
     </row>
@@ -5983,13 +5790,13 @@
         <f t="shared" si="0"/>
         <v>295</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="1">
         <v>99.89</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I62" s="2">
         <v>81</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="3">
         <v>293.7</v>
       </c>
     </row>
@@ -5998,13 +5805,13 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="1">
         <v>100</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63" s="2">
         <v>79.95</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="3">
         <v>298.82</v>
       </c>
     </row>
@@ -6013,13 +5820,13 @@
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="1">
         <v>99.83</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I64" s="2">
         <v>81.13</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="3">
         <v>303.76</v>
       </c>
     </row>
@@ -6028,13 +5835,13 @@
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="1">
         <v>99.89</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65" s="2">
         <v>81.13</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="3">
         <v>308.87</v>
       </c>
     </row>
@@ -6043,13 +5850,13 @@
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="1">
         <v>99.94</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="2">
         <v>80.34</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="3">
         <v>313.68</v>
       </c>
     </row>
@@ -6058,13 +5865,13 @@
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="1">
         <v>100</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I67" s="2">
         <v>81.78</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67" s="3">
         <v>318.44</v>
       </c>
     </row>
@@ -6073,13 +5880,13 @@
         <f t="shared" ref="A68:A89" si="1">5*(ROW(A68)-3)</f>
         <v>325</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="1">
         <v>100</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I68" s="2">
         <v>80.73</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68" s="3">
         <v>323.26</v>
       </c>
     </row>
@@ -6088,13 +5895,13 @@
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="1">
         <v>100</v>
       </c>
-      <c r="I69" s="5">
+      <c r="I69" s="2">
         <v>81.13</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69" s="3">
         <v>328.13</v>
       </c>
     </row>
@@ -6103,13 +5910,13 @@
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="1">
         <v>100</v>
       </c>
-      <c r="I70" s="5">
+      <c r="I70" s="2">
         <v>81.78</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J70" s="3">
         <v>332.99</v>
       </c>
     </row>
@@ -6118,13 +5925,13 @@
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="1">
         <v>100</v>
       </c>
-      <c r="I71" s="5">
+      <c r="I71" s="2">
         <v>81.78</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J71" s="3">
         <v>338.03</v>
       </c>
     </row>
@@ -6133,13 +5940,13 @@
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="H72" s="4">
+      <c r="H72" s="1">
         <v>100</v>
       </c>
-      <c r="I72" s="5">
+      <c r="I72" s="2">
         <v>82.04</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72" s="3">
         <v>342.87</v>
       </c>
     </row>
@@ -6148,13 +5955,13 @@
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="1">
         <v>100</v>
       </c>
-      <c r="I73" s="5">
+      <c r="I73" s="2">
         <v>80.599999999999994</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J73" s="3">
         <v>347.56</v>
       </c>
     </row>
@@ -6163,13 +5970,13 @@
         <f t="shared" si="1"/>
         <v>355</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H74" s="1">
         <v>100</v>
       </c>
-      <c r="I74" s="5">
+      <c r="I74" s="2">
         <v>81.91</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J74" s="3">
         <v>352.36</v>
       </c>
     </row>
@@ -6178,13 +5985,13 @@
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="1">
         <v>100</v>
       </c>
-      <c r="I75" s="5">
+      <c r="I75" s="2">
         <v>79.55</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J75" s="3">
         <v>357.18</v>
       </c>
     </row>
@@ -6193,13 +6000,13 @@
         <f t="shared" si="1"/>
         <v>365</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="1">
         <v>100</v>
       </c>
-      <c r="I76" s="5">
+      <c r="I76" s="2">
         <v>82.57</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J76" s="3">
         <v>361.92</v>
       </c>
     </row>
@@ -6208,13 +6015,13 @@
         <f t="shared" si="1"/>
         <v>370</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="1">
         <v>100</v>
       </c>
-      <c r="I77" s="5">
+      <c r="I77" s="2">
         <v>82.31</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J77" s="3">
         <v>366.93</v>
       </c>
     </row>
@@ -6223,13 +6030,13 @@
         <f t="shared" si="1"/>
         <v>375</v>
       </c>
-      <c r="H78" s="4">
+      <c r="H78" s="1">
         <v>100</v>
       </c>
-      <c r="I78" s="5">
+      <c r="I78" s="2">
         <v>81.39</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J78" s="3">
         <v>371.71</v>
       </c>
     </row>
@@ -6238,13 +6045,13 @@
         <f t="shared" si="1"/>
         <v>380</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H79" s="1">
         <v>100</v>
       </c>
-      <c r="I79" s="5">
+      <c r="I79" s="2">
         <v>80.209999999999994</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J79" s="3">
         <v>376.99</v>
       </c>
     </row>
@@ -6253,13 +6060,13 @@
         <f t="shared" si="1"/>
         <v>385</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="1">
         <v>100</v>
       </c>
-      <c r="I80" s="5">
+      <c r="I80" s="2">
         <v>80.73</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J80" s="3">
         <v>382.07</v>
       </c>
     </row>
@@ -6268,13 +6075,13 @@
         <f t="shared" si="1"/>
         <v>390</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="1">
         <v>100</v>
       </c>
-      <c r="I81" s="5">
+      <c r="I81" s="2">
         <v>81.650000000000006</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J81" s="3">
         <v>386.99</v>
       </c>
     </row>
@@ -6283,13 +6090,13 @@
         <f t="shared" si="1"/>
         <v>395</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="1">
         <v>100</v>
       </c>
-      <c r="I82" s="5">
+      <c r="I82" s="2">
         <v>81.91</v>
       </c>
-      <c r="J82" s="6">
+      <c r="J82" s="3">
         <v>391.78</v>
       </c>
     </row>
@@ -6298,13 +6105,13 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H83" s="1">
         <v>100</v>
       </c>
-      <c r="I83" s="5">
+      <c r="I83" s="2">
         <v>81</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J83" s="3">
         <v>396.77</v>
       </c>
     </row>
@@ -6313,13 +6120,13 @@
         <f t="shared" si="1"/>
         <v>405</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H84" s="1">
         <v>100</v>
       </c>
-      <c r="I84" s="5">
+      <c r="I84" s="2">
         <v>82.18</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J84" s="3">
         <v>401.83</v>
       </c>
     </row>
@@ -6328,13 +6135,13 @@
         <f t="shared" si="1"/>
         <v>410</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H85" s="1">
         <v>100</v>
       </c>
-      <c r="I85" s="5">
+      <c r="I85" s="2">
         <v>81.39</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J85" s="3">
         <v>406.75</v>
       </c>
     </row>
@@ -6343,13 +6150,13 @@
         <f t="shared" si="1"/>
         <v>415</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="1">
         <v>100</v>
       </c>
-      <c r="I86" s="5">
+      <c r="I86" s="2">
         <v>81.39</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J86" s="3">
         <v>411.78</v>
       </c>
     </row>
@@ -6358,13 +6165,13 @@
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="1">
         <v>100</v>
       </c>
-      <c r="I87" s="5">
+      <c r="I87" s="2">
         <v>82.31</v>
       </c>
-      <c r="J87" s="6">
+      <c r="J87" s="3">
         <v>416.66</v>
       </c>
     </row>
@@ -6373,13 +6180,13 @@
         <f t="shared" si="1"/>
         <v>425</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="1">
         <v>100</v>
       </c>
-      <c r="I88" s="5">
+      <c r="I88" s="2">
         <v>82.31</v>
       </c>
-      <c r="J88" s="6">
+      <c r="J88" s="3">
         <v>416.66</v>
       </c>
     </row>
